--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -37,15 +37,15 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Дегтерева Карина</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
-    <t>Дегтерева Карина</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -58,15 +58,15 @@
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Виктор Морозов</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>369107</t>
   </si>
   <si>
+    <t>416762</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
     <t>369588</t>
   </si>
   <si>
-    <t>416762</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
@@ -112,13 +112,13 @@
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>352865</t>
   </si>
   <si>
     <t>417223</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>417133</t>
@@ -700,13 +700,13 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -756,13 +756,13 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -802,7 +802,7 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -816,6 +816,9 @@
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="2" t="s">
@@ -824,7 +827,7 @@
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -835,7 +838,7 @@
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -886,8 +889,8 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="4" t="s">
-        <v>45</v>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -897,7 +900,7 @@
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -908,7 +911,7 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -52,15 +52,15 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -106,13 +106,13 @@
     <t>415632</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>371742</t>
   </si>
   <si>
     <t>415486</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>352865</t>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -802,6 +802,9 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
@@ -864,6 +867,9 @@
       </c>
       <c r="B11" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:18">

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -40,27 +40,27 @@
     <t>Дегтерева Карина</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -94,25 +94,25 @@
     <t>416762</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321540</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321423</t>
   </si>
   <si>
     <t>415632</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>415633</t>
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>352865</t>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -28,33 +28,33 @@
     <t>Вахитова Екатерина</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
     <t>Казаков Максим</t>
   </si>
   <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Селедкин Ярослав</t>
   </si>
   <si>
@@ -82,31 +82,31 @@
     <t>262625</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
     <t>328905</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
     <t>416762</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
     <t>321540</t>
   </si>
   <si>
     <t>321423</t>
-  </si>
-  <si>
-    <t>415632</t>
-  </si>
-  <si>
-    <t>415486</t>
   </si>
   <si>
     <t>415633</t>
@@ -697,25 +697,25 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>0</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -805,10 +805,13 @@
       <c r="E5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -819,7 +822,7 @@
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -830,7 +833,7 @@
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -841,7 +844,7 @@
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -868,7 +871,7 @@
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -895,7 +898,7 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -906,7 +909,7 @@
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -917,7 +920,7 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -46,6 +46,9 @@
     <t>Медведев Александр</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Дегтерева Карина</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>Провалинский Владимир</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Пяткова Валерия</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>369107</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>416762</t>
   </si>
   <si>
@@ -113,9 +116,6 @@
   </si>
   <si>
     <t>371742</t>
-  </si>
-  <si>
-    <t>352865</t>
   </si>
   <si>
     <t>417223</t>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>6</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>1</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -765,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -808,10 +808,10 @@
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="K5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -822,7 +822,7 @@
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -909,7 +909,7 @@
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -920,7 +920,7 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -31,18 +31,18 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
+    <t>Поддубецкий Антон</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
-    <t>Поддубецкий Антон</t>
-  </si>
-  <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,12 +55,12 @@
     <t>Казаков Максим</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Провалинский Владимир</t>
   </si>
   <si>
@@ -85,18 +85,18 @@
     <t>430719</t>
   </si>
   <si>
+    <t>369588</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>328905</t>
   </si>
   <si>
-    <t>369588</t>
-  </si>
-  <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -109,10 +109,10 @@
     <t>321540</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>321423</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>371742</t>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -802,16 +802,16 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F5" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="K5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -871,7 +871,7 @@
       <c r="B11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>45</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>№</t>
   </si>
@@ -34,15 +34,18 @@
     <t>Поддубецкий Антон</t>
   </si>
   <si>
+    <t>Шатохин Данил</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Шатохин Данил</t>
-  </si>
-  <si>
     <t>Леонтьв Дмитрий</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>Казаков Максим</t>
   </si>
   <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Карпович Александр</t>
   </si>
   <si>
@@ -88,15 +88,18 @@
     <t>369588</t>
   </si>
   <si>
+    <t>415486</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>415486</t>
-  </si>
-  <si>
     <t>328905</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
     <t>369107</t>
   </si>
   <si>
@@ -107,9 +110,6 @@
   </si>
   <si>
     <t>321540</t>
-  </si>
-  <si>
-    <t>415633</t>
   </si>
   <si>
     <t>321423</t>
@@ -694,13 +694,13 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
         <v>6</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>0</v>
       </c>
       <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
         <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -802,13 +802,16 @@
       <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="3" t="s">
@@ -822,7 +825,7 @@
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -833,7 +836,7 @@
       <c r="B7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -844,7 +847,7 @@
       <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="L8" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -898,7 +901,7 @@
       <c r="B14" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -909,7 +912,7 @@
       <c r="B15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -920,7 +923,7 @@
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="L16" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -25,27 +25,27 @@
     <t>Шестаков Вячеслав</t>
   </si>
   <si>
+    <t>Ченченко Даниил</t>
+  </si>
+  <si>
     <t>Вахитова Екатерина</t>
   </si>
   <si>
-    <t>Ченченко Даниил</t>
-  </si>
-  <si>
     <t>Поддубецкий Антон</t>
   </si>
   <si>
     <t>Шатохин Данил</t>
   </si>
   <si>
+    <t>Селедкин Ярослав</t>
+  </si>
+  <si>
+    <t>Леонтьв Дмитрий</t>
+  </si>
+  <si>
     <t>Коляда Вадим</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
-  </si>
-  <si>
-    <t>Селедкин Ярослав</t>
-  </si>
-  <si>
     <t>Медведев Александр</t>
   </si>
   <si>
@@ -79,27 +79,27 @@
     <t>263178</t>
   </si>
   <si>
+    <t>430719</t>
+  </si>
+  <si>
     <t>262625</t>
   </si>
   <si>
-    <t>430719</t>
-  </si>
-  <si>
     <t>369588</t>
   </si>
   <si>
     <t>415486</t>
   </si>
   <si>
+    <t>415633</t>
+  </si>
+  <si>
+    <t>328905</t>
+  </si>
+  <si>
     <t>321426</t>
   </si>
   <si>
-    <t>328905</t>
-  </si>
-  <si>
-    <t>415633</t>
-  </si>
-  <si>
     <t>369107</t>
   </si>
   <si>
@@ -131,66 +131,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
-  </si>
-  <si>
-    <t>1+</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>923</t>
   </si>
 </sst>
 </file>
@@ -222,24 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -254,14 +182,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -685,25 +611,25 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -715,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -759,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -771,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -790,169 +716,10 @@
       </c>
       <c r="R4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R19"/>
+  <autoFilter ref="A1:R4"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -971,21 +738,6 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +131,72 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>1+</t>
+  </si>
+  <si>
+    <t>1+, 9-</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>906</t>
+  </si>
+  <si>
+    <t>923</t>
   </si>
 </sst>
 </file>
@@ -162,12 +228,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,12 +260,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,28 +691,28 @@
         <v>36</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -641,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -670,13 +750,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -685,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -697,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -718,8 +798,176 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:R4"/>
+  <autoFilter ref="A1:R19"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -738,6 +986,21 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
+    <hyperlink ref="A5" r:id="rId18"/>
+    <hyperlink ref="A6" r:id="rId19"/>
+    <hyperlink ref="A7" r:id="rId20"/>
+    <hyperlink ref="A8" r:id="rId21"/>
+    <hyperlink ref="A9" r:id="rId22"/>
+    <hyperlink ref="A10" r:id="rId23"/>
+    <hyperlink ref="A11" r:id="rId24"/>
+    <hyperlink ref="A12" r:id="rId25"/>
+    <hyperlink ref="A13" r:id="rId26"/>
+    <hyperlink ref="A14" r:id="rId27"/>
+    <hyperlink ref="A15" r:id="rId28"/>
+    <hyperlink ref="A16" r:id="rId29"/>
+    <hyperlink ref="A17" r:id="rId30"/>
+    <hyperlink ref="A18" r:id="rId31"/>
+    <hyperlink ref="A19" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$R$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$U$20</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>№</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Ченченко Даниил</t>
   </si>
   <si>
-    <t>Вахитова Екатерина</t>
+    <t>Екатерина Юрьевна</t>
   </si>
   <si>
     <t>Поддубецкий Антон</t>
@@ -40,7 +40,7 @@
     <t>Селедкин Ярослав</t>
   </si>
   <si>
-    <t>Леонтьв Дмитрий</t>
+    <t>Леонтьев Дмитрий</t>
   </si>
   <si>
     <t>Коляда Вадим</t>
@@ -73,7 +73,16 @@
     <t>Глушков Артём</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Грачёв Ромен</t>
+  </si>
+  <si>
+    <t>Костюнин Егор</t>
+  </si>
+  <si>
+    <t>Урцегов Артём</t>
+  </si>
+  <si>
+    <t>Acmp</t>
   </si>
   <si>
     <t>263178</t>
@@ -127,6 +136,57 @@
     <t>418688</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>Codeforces</t>
+  </si>
+  <si>
+    <t>slavashestakov2005</t>
+  </si>
+  <si>
+    <t>pchelka12</t>
+  </si>
+  <si>
+    <t>a_ntony</t>
+  </si>
+  <si>
+    <t>Dinelo</t>
+  </si>
+  <si>
+    <t>sen1van</t>
+  </si>
+  <si>
+    <t>Vadlm</t>
+  </si>
+  <si>
+    <t>Sasha_Medvedev</t>
+  </si>
+  <si>
+    <t>AndreBc</t>
+  </si>
+  <si>
+    <t>degterevvva</t>
+  </si>
+  <si>
+    <t>044s4</t>
+  </si>
+  <si>
+    <t>ABRAMOVICHH</t>
+  </si>
+  <si>
+    <t>art3m_glushkov</t>
+  </si>
+  <si>
+    <t>Romafka</t>
+  </si>
+  <si>
+    <t>kjuby</t>
+  </si>
+  <si>
+    <t>AbramovichLinkoln</t>
+  </si>
+  <si>
     <t>+</t>
   </si>
   <si>
@@ -145,52 +205,67 @@
     <t>1+, 9-</t>
   </si>
   <si>
+    <t>1+, 1-</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
     <t>39</t>
   </si>
   <si>
+    <t>2+</t>
+  </si>
+  <si>
+    <t>3-</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2+, 9-</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>317</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
     <t>2-</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>1+, 1-</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>366</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>698</t>
   </si>
   <si>
     <t>906</t>
@@ -562,7 +637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -571,10 +646,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="18" width="10.7109375" customWidth="1"/>
+    <col min="1" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,345 +704,470 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="N4">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>6</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>67</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>62</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>60</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R19"/>
+  <autoFilter ref="A1:U20"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -986,21 +1186,44 @@
     <hyperlink ref="P2" r:id="rId15"/>
     <hyperlink ref="Q2" r:id="rId16"/>
     <hyperlink ref="R2" r:id="rId17"/>
-    <hyperlink ref="A5" r:id="rId18"/>
-    <hyperlink ref="A6" r:id="rId19"/>
-    <hyperlink ref="A7" r:id="rId20"/>
-    <hyperlink ref="A8" r:id="rId21"/>
-    <hyperlink ref="A9" r:id="rId22"/>
-    <hyperlink ref="A10" r:id="rId23"/>
-    <hyperlink ref="A11" r:id="rId24"/>
-    <hyperlink ref="A12" r:id="rId25"/>
-    <hyperlink ref="A13" r:id="rId26"/>
-    <hyperlink ref="A14" r:id="rId27"/>
-    <hyperlink ref="A15" r:id="rId28"/>
-    <hyperlink ref="A16" r:id="rId29"/>
-    <hyperlink ref="A17" r:id="rId30"/>
-    <hyperlink ref="A18" r:id="rId31"/>
-    <hyperlink ref="A19" r:id="rId32"/>
+    <hyperlink ref="S2" r:id="rId18"/>
+    <hyperlink ref="T2" r:id="rId19"/>
+    <hyperlink ref="U2" r:id="rId20"/>
+    <hyperlink ref="B3" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D3" r:id="rId23"/>
+    <hyperlink ref="E3" r:id="rId24"/>
+    <hyperlink ref="F3" r:id="rId25"/>
+    <hyperlink ref="G3" r:id="rId26"/>
+    <hyperlink ref="H3" r:id="rId27"/>
+    <hyperlink ref="I3" r:id="rId28"/>
+    <hyperlink ref="J3" r:id="rId29"/>
+    <hyperlink ref="K3" r:id="rId30"/>
+    <hyperlink ref="L3" r:id="rId31"/>
+    <hyperlink ref="M3" r:id="rId32"/>
+    <hyperlink ref="N3" r:id="rId33"/>
+    <hyperlink ref="O3" r:id="rId34"/>
+    <hyperlink ref="P3" r:id="rId35"/>
+    <hyperlink ref="Q3" r:id="rId36"/>
+    <hyperlink ref="R3" r:id="rId37"/>
+    <hyperlink ref="S3" r:id="rId38"/>
+    <hyperlink ref="T3" r:id="rId39"/>
+    <hyperlink ref="U3" r:id="rId40"/>
+    <hyperlink ref="A6" r:id="rId41"/>
+    <hyperlink ref="A7" r:id="rId42"/>
+    <hyperlink ref="A8" r:id="rId43"/>
+    <hyperlink ref="A9" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId45"/>
+    <hyperlink ref="A11" r:id="rId46"/>
+    <hyperlink ref="A12" r:id="rId47"/>
+    <hyperlink ref="A13" r:id="rId48"/>
+    <hyperlink ref="A14" r:id="rId49"/>
+    <hyperlink ref="A15" r:id="rId50"/>
+    <hyperlink ref="A16" r:id="rId51"/>
+    <hyperlink ref="A17" r:id="rId52"/>
+    <hyperlink ref="A18" r:id="rId53"/>
+    <hyperlink ref="A19" r:id="rId54"/>
+    <hyperlink ref="A20" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>№</t>
   </si>
@@ -232,6 +232,12 @@
     <t>153</t>
   </si>
   <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
     <t>228</t>
   </si>
   <si>
@@ -263,9 +269,6 @@
   </si>
   <si>
     <t>698</t>
-  </si>
-  <si>
-    <t>2-</t>
   </si>
   <si>
     <t>906</t>
@@ -861,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -917,13 +920,13 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1047,13 +1050,19 @@
       <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="L9" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -1061,7 +1070,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -1069,7 +1078,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
@@ -1081,12 +1090,12 @@
         <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -1094,20 +1103,26 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="3" t="s">
@@ -1116,10 +1131,10 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>60</v>
@@ -1127,7 +1142,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>60</v>
@@ -1141,18 +1156,18 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>60</v>
@@ -1160,7 +1175,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>

--- a/groups/22-23/tasks_results/22.11.10.xlsx
+++ b/groups/22-23/tasks_results/22.11.10.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>№</t>
   </si>
@@ -232,28 +232,28 @@
     <t>153</t>
   </si>
   <si>
-    <t>5-</t>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>2+, 9-</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>317</t>
   </si>
   <si>
     <t>2-</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>2+, 9-</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>317</t>
   </si>
   <si>
     <t>350</t>
@@ -855,13 +855,13 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -920,16 +920,16 @@
         <v>0</v>
       </c>
       <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1050,11 +1050,14 @@
       <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>72</v>
+      <c r="F9" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>64</v>
@@ -1062,7 +1065,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>60</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>60</v>
@@ -1078,7 +1081,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>60</v>
@@ -1090,12 +1093,12 @@
         <v>65</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>60</v>
@@ -1103,13 +1106,13 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1162,7 +1165,7 @@
         <v>62</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:12">
